--- a/tlist.xlsx
+++ b/tlist.xlsx
@@ -736,7 +736,7 @@
     <t>Cityzencar</t>
   </si>
   <si>
-    <t>10k gals of water leak in an ave home per year. So we're turning the everyday user into a water hero.</t>
+    <t>10k gals of water leak in an ave home per year.  So we're turning the everyday user into a water hero.</t>
   </si>
   <si>
     <t>Energy Sub-metering and Analytics</t>
@@ -757,7 +757,7 @@
     <t>SparkFund provides streamlined financing for small &amp; med. scale energy efficiency projects, helping our partners close more deals and get efficiency done.</t>
   </si>
   <si>
-    <t>Leader in active grid infrastructure, enabling utilities to more effectively integrate renewable energy, increase efficiency and improve reliability. #agilegrid</t>
+    <t>Leader in agile grid infrastructure, enabling utilities to more effectively integrate renewable energy, increase efficiency and improve reliability. #agilegrid</t>
   </si>
   <si>
     <t>The smart water meter for your shower. Monitors usage and provides real time feedback to promote water conservation.</t>
@@ -811,7 +811,7 @@
     <t>Making energy efficiency social and engaging.</t>
   </si>
   <si>
-    <t>Are you a rental shop? We can help get your gear rentals on your website, for free. Send us a message for a demo of our retailer software.</t>
+    <t>Are you a rental shop? We can help get your gear rentals on your website, for free.  Send us a message for a demo of our retailer software.</t>
   </si>
   <si>
     <t>Dropcountr mobile and web apps help water utilities and their customers save water, money and time.</t>
@@ -838,7 +838,7 @@
     <t>Empowering energy managers to unlock savings in the built environment.</t>
   </si>
   <si>
-    <t>Data-driven optimization for HVAC systems. What can your buildings learn today?</t>
+    <t>Data-driven optimization for HVAC systems.                                                                   What can your buildings learn today?</t>
   </si>
   <si>
     <t>Civvic powers #cleanweb energy projects by allowing you to calculate the value of energy incentives &amp; policies via our web APIs</t>
@@ -871,7 +871,7 @@
     <t>Software &amp; data services that help consumers, utilities and service providers make smart energy decisions.</t>
   </si>
   <si>
-    <t>Looking to rent a boat? Boatbound is the fastest growing pier-to-pier boat rental platform. Own a boat? List it on Boatbound.co.</t>
+    <t>Looking to rent a boat? Boatbound is the fastest growing  pier-to-pier boat rental platform.  Own a boat? List it on Boatbound.co.</t>
   </si>
   <si>
     <t>Carlos Prio (CEO) reducing consumption through energy intelligence! Follow my methodical madness in Chile, Colombia, Costa Rica, Ecuador, Panama, Peru and more!</t>
@@ -956,7 +956,7 @@
     <t>Share your ride with a nearby rider heading your way and cut the cost in half. #sharedrides</t>
   </si>
   <si>
-    <t>Intelligent climate control (http://t.co/CDtDPp4jWv) for heating systems and ACs for effortless energy saving! #SmartThermostat</t>
+    <t>Intelligent climate control (http://t.co/CDtDPp4jWv) for heating systems  and ACs for effortless energy saving! #SmartThermostat</t>
   </si>
   <si>
     <t>Big data done better. _x000D_
@@ -1087,7 +1087,7 @@
     <t>AetherStore pools unused computer storage space, enabling you to create a robust, secure network drive with no new hardware. Developed by @AetherWorksLLC.</t>
   </si>
   <si>
-    <t>Keep good stuff out of landfill by using Ziilch to give away items you no longer need or to find FREE stuff people are giving away! #freestuff #reuse #upcycle</t>
+    <t>Keep good stuff out of landfill by using Ziilch to give away items you no longer need or to find FREE stuff people are giving away!  #freestuff #reuse #upcycle</t>
   </si>
   <si>
     <t>Convenient, flexible, productive, and eco-friendly commuting in first-class shuttles with WiFi. Drive less, live more.</t>
@@ -1136,7 +1136,7 @@
     <t>Compare Solar Installation Estimates from Hundreds of Certified Installers. Changing the way people shop for #solar.</t>
   </si>
   <si>
-    <t>Cultivating Collaborative Consumption &amp; the Sharing Economy #sustainability #community #hope #humanity #collcons</t>
+    <t>Cultivating Collaborative Consumption &amp; the Sharing Economy #sustainability #community  #hope #humanity #collcons</t>
   </si>
   <si>
     <t>Verdiem helped define the PC power management market. Follow us for IT, energy management, and efficiency software news!</t>
@@ -1162,7 +1162,7 @@
     <t>Mosaic is America’s peer-to-peer solar company. Our online marketplace connects solar investors and borrowers so that everyone can profit from clean energy.</t>
   </si>
   <si>
-    <t>Software startup helping New Energy Companies build energy cost savings into their products and services.</t>
+    <t>Software startup helping New Energy Companies build energy cost savings into their products and services.</t>
   </si>
   <si>
     <t>SiteSage by Powerhouse Dynamics: enterprise energy &amp; asset management for portfolios of small facilities. Remote ongoing control, analysis, diagnostics, alerts.</t>
@@ -1268,7 +1268,7 @@
     <t>We're on a mission to create brands of enduring value.</t>
   </si>
   <si>
-    <t>Geospatial and visual analytics software. Situational intelligence for a smarter world.</t>
+    <t>Geospatial and visual analytics software.  Situational intelligence for a smarter world.</t>
   </si>
   <si>
     <t>Supply chain risk, resilience and sustainability tweets by Founder CEO Leonardo Bonanni</t>
@@ -1343,10 +1343,10 @@
     <t>car2go makes transportation flexible in 26 cities worldwide. Anytime. Anywhere. Get in and drive off #car2go #carsharing Impressum: http://t.co/rEUxopigHC</t>
   </si>
   <si>
-    <t>Global Search for Global Trade Professionals. Find, evaluate, make contact. Faster.</t>
-  </si>
-  <si>
-    <t>Cityhop, NZ’s first carshare club offering cars by the hour from convenient parks in Ak and Wgtn. Ecofriendly &amp; affordable, for you, for business, for life.</t>
+    <t>Global Search for Global Trade Professionals.  Find, evaluate, make contact.  Faster.</t>
+  </si>
+  <si>
+    <t>Cityhop, NZ’s first carshare club offering cars by the hour from convenient parks in Ak and Wgtn. Ecofriendly &amp; affordable, for you, for  business, for life.</t>
   </si>
   <si>
     <t>UL Environment helps the world make, market, find, and trust greener, healthier, more sustainable products and companies.</t>
@@ -1373,7 +1373,7 @@
     <t>We inspire &amp; reward smarter, everyday choices for a more sustainable future. We bring together people, businesses &amp; communities to achieve real world impact.</t>
   </si>
   <si>
-    <t>Connecting people who want to grow their own food to space where they can grow it. We've got an iPhone App too: http://t.co/RZ4DRssR</t>
+    <t>Connecting people who want to grow their own food to space where they can grow it. We've got  an iPhone App too: http://t.co/RZ4DRssR</t>
   </si>
   <si>
     <t>Founded in Atlanta in 1993, Apogee's mission is to provide engaging applications to utilities that facilitate energy education and action among consumers.</t>
@@ -1448,7 +1448,7 @@
     <t>By @LogMeIn - Simplify &amp; accelerate the creation, deployment, and management of #ConnectedProducts and solutions on the #IoE #IoT</t>
   </si>
   <si>
-    <t>L'utopie automobile 2.0, c'est le partage. CityzenCar a rejoint @BuzzcarFR en juin 2013 ♥ #carsharing #collcons</t>
+    <t>L'utopie automobile 2.0, c'est le partage. CityzenCar a rejoint  @BuzzcarFR en juin 2013 ♥ #carsharing #collcons</t>
   </si>
   <si>
     <t>http://t.co/su8S5yNEK6</t>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>37</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>38</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>39</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>43</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>44</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>45</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>46</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>47</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>48</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>49</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>51</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>52</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>53</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>54</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>56</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>57</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>58</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>59</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>60</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>61</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>62</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>63</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>64</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>65</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>66</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>67</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>68</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>69</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>70</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>71</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>72</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>73</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>74</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>75</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>76</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>77</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>78</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>79</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>80</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>81</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>82</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>83</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>84</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>85</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>86</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>87</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>88</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>89</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>90</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>91</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>92</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>93</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>94</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>95</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>96</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>97</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>98</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>99</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>100</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>101</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>102</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>103</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>104</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>105</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>106</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>107</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>108</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>109</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>110</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>111</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>112</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>113</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>114</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>115</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>116</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>117</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>118</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>119</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>120</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>121</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>122</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>123</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>124</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>125</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>126</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>127</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>128</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>129</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>130</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>131</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>132</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>133</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>134</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>135</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>136</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>137</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>138</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>139</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>140</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>141</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>142</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>143</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>144</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>145</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>146</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>147</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>148</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>149</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>150</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>151</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>152</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>153</v>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>154</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>155</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>156</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>157</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>158</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>159</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>160</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>161</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>162</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>163</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>164</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>165</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>166</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>167</v>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>168</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>169</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>170</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>171</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>172</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>173</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>174</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>175</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>176</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>177</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>178</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>179</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>180</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>181</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>182</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>183</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>184</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>185</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>186</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>187</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>188</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>189</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>190</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>191</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>192</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>193</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>194</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>195</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>196</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>197</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>198</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>199</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>200</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>201</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>202</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>203</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>204</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>205</v>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>206</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>207</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>208</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>209</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>210</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>211</v>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>212</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>213</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>214</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>215</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>216</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>217</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>218</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>219</v>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>220</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>221</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>222</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>223</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>224</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>225</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>226</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>227</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>228</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>229</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>230</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>231</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>232</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>233</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>234</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>235</v>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>236</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>237</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>238</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>239</v>

--- a/tlist.xlsx
+++ b/tlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="877">
   <si>
     <t>name</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Bulbtrip Support</t>
   </si>
   <si>
-    <t>EnergyScore</t>
+    <t>EnerScore</t>
   </si>
   <si>
     <t>Open Utility</t>
@@ -127,7 +127,7 @@
     <t>Breather</t>
   </si>
   <si>
-    <t>WireWatt</t>
+    <t>Wirewatt</t>
   </si>
   <si>
     <t>Optimum Energy</t>
@@ -652,9 +652,6 @@
     <t>ThinkEco</t>
   </si>
   <si>
-    <t>Pulse Energy</t>
-  </si>
-  <si>
     <t>Zimride</t>
   </si>
   <si>
@@ -670,7 +667,7 @@
     <t>Intelen, Inc</t>
   </si>
   <si>
-    <t>Sunrun</t>
+    <t>Sunrun Solar</t>
   </si>
   <si>
     <t>AutoShare</t>
@@ -778,7 +775,7 @@
     <t>A cloud-based informatics platform for better batteries.</t>
   </si>
   <si>
-    <t>Smart Water Management</t>
+    <t>Boston based Startup working on a Smart Water Management IoT solution to help people, industry, organizations, and governments track and conserve water.</t>
   </si>
   <si>
     <t>The web has a huge carbon footprint. Let's use good design to reduce CO2 and help avert climate disaster. Personal account: @jc_ux</t>
@@ -802,7 +799,7 @@
     <t>Your Closet In The Cloud.™ You pack. We pick up, store, and redeliver so you never have to visit a storage unit again.</t>
   </si>
   <si>
-    <t>Smart Irrigation, Enjoy Your Yard</t>
+    <t>The smart sprinkler controller. All about intelligent water use: manage your water, save money, control from anywhere.</t>
   </si>
   <si>
     <t>FIGARO project aims to increase water productivity in major water-demanding crops and develop a cost-effective precision irrigation platform.</t>
@@ -811,7 +808,7 @@
     <t>Making energy efficiency social and engaging.</t>
   </si>
   <si>
-    <t>Are you a rental shop? We can help get your gear rentals on your website, for free.  Send us a message for a demo of our retailer software.</t>
+    <t>Share gear. Get outside. We are the #sharingeconomy for outdoor enthusiasts.</t>
   </si>
   <si>
     <t>Dropcountr mobile and web apps help water utilities and their customers save water, money and time.</t>
@@ -835,10 +832,10 @@
     <t>Breather is a network of beautiful city spaces that you can unlock at any time.</t>
   </si>
   <si>
-    <t>Empowering energy managers to unlock savings in the built environment.</t>
-  </si>
-  <si>
-    <t>Data-driven optimization for HVAC systems.                                                                   What can your buildings learn today?</t>
+    <t>On-line financing platform connecting residential #solar projects in #emerging economies to capital markets @rockstartaccel @rockstart</t>
+  </si>
+  <si>
+    <t>Scalable, Data-Driven Optimization for Enterprise-Grade Heating and Cooling Systems</t>
   </si>
   <si>
     <t>Civvic powers #cleanweb energy projects by allowing you to calculate the value of energy incentives &amp; policies via our web APIs</t>
@@ -862,10 +859,10 @@
     <t>Intelligent solutions that locate, store and analyse data from mobile calls enabling operators to boost network performance and enrich user experience.</t>
   </si>
   <si>
-    <t>WiFi-powered, cloud-connected sensors for home automation and business monitoring. Products by @GridConnect. #IoT #hightechhomes</t>
-  </si>
-  <si>
-    <t>The fastest way to send anything anywhere</t>
+    <t>WiFi-powered, cloud-connected sensors for home automation and business monitoring + Smart Outlet. Products by @GridConnect. #IoT #hightechhomes #smarthome</t>
+  </si>
+  <si>
+    <t>Send anything anywhere</t>
   </si>
   <si>
     <t>Software &amp; data services that help consumers, utilities and service providers make smart energy decisions.</t>
@@ -877,16 +874,17 @@
     <t>Carlos Prio (CEO) reducing consumption through energy intelligence! Follow my methodical madness in Chile, Colombia, Costa Rica, Ecuador, Panama, Peru and more!</t>
   </si>
   <si>
-    <t>coUrbanize helps communities and real estate developers build better cities, together.</t>
-  </si>
-  <si>
-    <t>The UK's first local food marketplace helping you buy great produce, at a great price, direct from local producers.</t>
+    <t>coUrbanize  helps communities and urban developers work together to build better cities.</t>
+  </si>
+  <si>
+    <t>Your online farmers' market.
+We make it easy to buy genuinely fresh seasonal food, direct from local producers.</t>
   </si>
   <si>
     <t>Order PlantLink Today!</t>
   </si>
   <si>
-    <t>We aggregate ground #transportation options and allow you to search and compare instantly. RideScout is free on iOS &amp; Android: http://t.co/QqQeAcOuML</t>
+    <t>We aggregate ground #transportation options &amp; allow you to search &amp; compare instantly. Follow #LiveTheTour as @YoungPandas takes our app on the road!</t>
   </si>
   <si>
     <t>Solar + Data Analytics</t>
@@ -984,7 +982,7 @@
 Reinvent the warehouse | Reimagine the supply chain™</t>
   </si>
   <si>
-    <t>A global network empowering citizens, public institutions and companies to build a collaborative society • Join us!</t>
+    <t>A global network empowering citizens, public institutions and companies to build a collaborative society. @OuiShareFest (May 20-22) • @Poc21cc • @Sharitories •</t>
   </si>
   <si>
     <t>Itemize your energy bill: Bidgely tells you how much energy your appliances use and crafts personalized recommendations for ways to save.</t>
@@ -996,13 +994,13 @@
     <t>We use our #PayItAround Lending Model to fund #Green Companies through #Crowdfunding Backers looking to do #Good and get money back.</t>
   </si>
   <si>
-    <t>alternative transportation consultant</t>
+    <t>consultant and social media strategist #WomanInTransportation</t>
   </si>
   <si>
     <t>The best tool for managing your farm.</t>
   </si>
   <si>
-    <t>Ethical Electric Company. We're the good guys in the energy business. Your power bill can be a force for good in the world. Use it wisely.</t>
+    <t>Ethical Electric is an energy company that does good. We power as many American homes and businesses as possible with 100% clean energy from renewable sources.</t>
   </si>
   <si>
     <t>Fostering creation of next-gen apps w/ transformative public benefit. Focus on health, energy, transportation, #edu, public safety, manufacturing. #gigabit #SDN</t>
@@ -1056,7 +1054,7 @@
     <t>Trusted Energy Efficiency Advisor</t>
   </si>
   <si>
-    <t>A donation platform putting fresh, surplus food into the hands of our neighbors in need. Because every meal counts. #freshfood4all</t>
+    <t>A donation platform connecting great, surplus food with nonprofits feeding people in need. Because every meal counts.</t>
   </si>
   <si>
     <t>WatrHub is an award-winning data &amp; analytics company that delivers actionable intelligence for the Water Industry to enable faster, more confident decisions.</t>
@@ -1068,7 +1066,7 @@
     <t>Pioneering IoT &amp; Industrial Internet with Wireless M2M. Reshaping 2 verticals: Smart Traffic in Smart Cities and Industrial Monitoring. Coverage by BBC &amp; WSJ</t>
   </si>
   <si>
-    <t>Innovating energy management. Our innovative software helps businesses discover how to reduce energy wastage. Never waste money on energy again! +35315327875</t>
+    <t>We Innovate energy management with an automated analytics software to help discover saving opportunities, measure and verify energy efficient projects.</t>
   </si>
   <si>
     <t>Rent Bikes, Snow, and Surf equipment from real people all over the world. Make Money - Meet People - Help The Environment</t>
@@ -1096,7 +1094,7 @@
     <t>Free web platform that connects growers to people with land to share. Sign up and get growin'! You can also sign up as a helper or a supporter.</t>
   </si>
   <si>
-    <t>The easy way for staff to give, get or loan furniture, equipment &amp; other assets within or between orgs. Finalist Circular Economy Awards http://t.co/OpZVk0TIM0</t>
+    <t>The easy way for staff to give get loan, furniture, equip &amp; assets within or between orgs, city and region.  Webinar http://t.co/u9BAjW8vbM</t>
   </si>
   <si>
     <t>FleetCarma makes electric vehicle adoption simple and effective through reliable Total Cost of Ownership calculations and EV monitoring.</t>
@@ -1114,7 +1112,7 @@
     <t>Enado is an affordable,flexible and advanced operating system/brain for the modern home and business-true intelligence and control integrating all devices IOT</t>
   </si>
   <si>
-    <t>The connection engine for real estate projects. #cre #marketplace</t>
+    <t>Data-driven bid management platform. #cre</t>
   </si>
   <si>
     <t>Calico helps utilities streamline operations. Our unified operations center connects data, devices, [software] engines &amp; applications.</t>
@@ -1147,7 +1145,7 @@
 leading companies.</t>
   </si>
   <si>
-    <t>Causeway is a resource hub that helps Chattanoogans develop meaningful solutions to some of our city’s most pressing civic challenges.</t>
+    <t>Causeway is a resource hub that inspires and equips Chattanoogans to develop meaningful solutions to some of our city’s most pressing challenges.</t>
   </si>
   <si>
     <t>Find or Post Rides! It's carpooling only...COOLER! - yRides is a Marketplace for car travel.</t>
@@ -1226,7 +1224,7 @@
     <t>GELI (Growing Energy Labs, Inc.) develops software to integrate, network, and economically operate energy storage systems.</t>
   </si>
   <si>
-    <t>A Digital Energy Company, Providing Smart Energy Data Solutions for Buildings (646) 350-3525</t>
+    <t>The Energy Data Company.</t>
   </si>
   <si>
     <t>The first of its kind, online solar energy marketplace. The one-stop shop for solar energy for your home, making going solar as easy as booking a plane ticket.</t>
@@ -1319,7 +1317,7 @@
     <t>We provide location intelligence solutions that bring clarity and control to complex operations. #smartfactory #myWorld</t>
   </si>
   <si>
-    <t>Global leader in IT Cost Optimization software and solutions, reducing servers, network bandwidth constraints, software licenses, and energy consumption.</t>
+    <t>Global leader in Software Lifecycle Automation solutions, reducing servers, network bandwidth constraints, software licenses, and energy consumption.</t>
   </si>
   <si>
     <t>LEEDuser brings you the knowledge and experience of professionals who spend their days guiding project teams through the LEED rating systems.</t>
@@ -1364,9 +1362,6 @@
     <t>We're ThinkEco. We offer intelligent energy efficiency solutions.</t>
   </si>
   <si>
-    <t>Follow @EnerNOC to stay in touch with us and learn more about our Energy Intelligence Software solutions.</t>
-  </si>
-  <si>
     <t>Zimride by Enterprise. Life is better when you share the ride.</t>
   </si>
   <si>
@@ -1382,7 +1377,7 @@
     <t>Building data Analytics to visualize &amp; simulate efficiency solutions &amp; consumer engagement for behavioral change</t>
   </si>
   <si>
-    <t>Saving money with Sunrun solar isn't just smart. It's brilliant. Sharing tidbits about solar, our customers, and living a smarter life.</t>
+    <t>Save with the sun. Sharing tidbits about solar, our customers, and living a smarter life. Give us a call at 855-478-6786.</t>
   </si>
   <si>
     <t>Toronto's favourite car sharing company, since 1998. AutoShare is now serviced by Enterprise CarShare. Learn more at http://t.co/RY0Wvh3jM0.</t>
@@ -1487,7 +1482,7 @@
     <t>http://t.co/KkUXcOPXzC</t>
   </si>
   <si>
-    <t>http://t.co/k8pyrQyudw</t>
+    <t>http://t.co/k8pyrQxWnY</t>
   </si>
   <si>
     <t>http://t.co/goRX8xIe0S</t>
@@ -1502,7 +1497,7 @@
     <t>https://t.co/WLYUBVZCw0</t>
   </si>
   <si>
-    <t>http://t.co/kYRd0TDbGc</t>
+    <t>http://t.co/rBXJ3fxOEx</t>
   </si>
   <si>
     <t>http://t.co/MAa18LpMtx</t>
@@ -1520,7 +1515,7 @@
     <t>http://t.co/G2FSpiVx3G</t>
   </si>
   <si>
-    <t>http://t.co/VXt4zhYEQX</t>
+    <t>http://t.co/W9TiV4Hi9a</t>
   </si>
   <si>
     <t>http://t.co/bIPAj10Ehb</t>
@@ -1529,7 +1524,7 @@
     <t>http://t.co/jPSfD4fGLG</t>
   </si>
   <si>
-    <t>http://t.co/CyXT8cOAUF</t>
+    <t>http://t.co/KMkWrrQozE</t>
   </si>
   <si>
     <t>http://t.co/cepTv1I9DR</t>
@@ -1544,7 +1539,7 @@
     <t>http://t.co/Hw9wKburVm</t>
   </si>
   <si>
-    <t>http://t.co/2FaFa8Y7Vx</t>
+    <t>http://t.co/nRzpJXowur</t>
   </si>
   <si>
     <t>http://t.co/MVzqpCHHlG</t>
@@ -1574,7 +1569,7 @@
     <t>http://t.co/MzqcbspCCH</t>
   </si>
   <si>
-    <t>http://t.co/g6dXNZ4xvb</t>
+    <t>http://t.co/g6dXNYvlvz</t>
   </si>
   <si>
     <t>http://t.co/AutKVWcrTS</t>
@@ -1595,7 +1590,7 @@
     <t>http://t.co/NBGyXChEdB</t>
   </si>
   <si>
-    <t>http://t.co/qYdqLnX5FP</t>
+    <t>http://t.co/EyBRWi3rQy</t>
   </si>
   <si>
     <t>http://t.co/dYYSvjOXnY</t>
@@ -1616,7 +1611,7 @@
     <t>http://t.co/xPu6sBow2i</t>
   </si>
   <si>
-    <t>http://t.co/yCgwi9AkOu</t>
+    <t>http://t.co/Gi1vQijIJD</t>
   </si>
   <si>
     <t>http://t.co/yWWoRYSVGT</t>
@@ -1676,7 +1671,7 @@
     <t>http://t.co/7igAFMKGo4</t>
   </si>
   <si>
-    <t>http://t.co/olZEscilnT</t>
+    <t>http://t.co/iLHZEqliDt</t>
   </si>
   <si>
     <t>http://t.co/CuDGcAoUEV</t>
@@ -1700,7 +1695,7 @@
     <t>http://t.co/oeCtnyt7QI</t>
   </si>
   <si>
-    <t>http://t.co/WAgaNTxS88</t>
+    <t>http://t.co/Zx2vTifBrF</t>
   </si>
   <si>
     <t>http://t.co/Msyd9DYwNZ</t>
@@ -1817,7 +1812,7 @@
     <t>http://t.co/lOwZWKBgbJ</t>
   </si>
   <si>
-    <t>http://t.co/0Z2SzKHMWS</t>
+    <t>http://t.co/0Z2SzKHf7k</t>
   </si>
   <si>
     <t>http://t.co/ewljn5xBTV</t>
@@ -1847,7 +1842,7 @@
     <t>http://t.co/MXQbvdAfar</t>
   </si>
   <si>
-    <t>http://t.co/l6FmsiOR8i</t>
+    <t>http://t.co/2rhh0zTEb7</t>
   </si>
   <si>
     <t>http://t.co/DRruydo38n</t>
@@ -2063,9 +2058,6 @@
     <t>http://t.co/fNcsZhoqNZ</t>
   </si>
   <si>
-    <t>http://t.co/BdLJSKPupP</t>
-  </si>
-  <si>
     <t>http://t.co/g1CcVXbhad</t>
   </si>
   <si>
@@ -2222,7 +2214,7 @@
     <t>bulbtrip</t>
   </si>
   <si>
-    <t>TheEnergyScore</t>
+    <t>enerscore</t>
   </si>
   <si>
     <t>OpenUtility</t>
@@ -2237,6 +2229,9 @@
     <t>breather</t>
   </si>
   <si>
+    <t>WireWatt</t>
+  </si>
+  <si>
     <t>TrueOptimize</t>
   </si>
   <si>
@@ -2615,9 +2610,6 @@
     <t>tracetracker</t>
   </si>
   <si>
-    <t>pulseenergy</t>
-  </si>
-  <si>
     <t>zimride</t>
   </si>
   <si>
@@ -2625,6 +2617,9 @@
   </si>
   <si>
     <t>intelen</t>
+  </si>
+  <si>
+    <t>Sunrun</t>
   </si>
   <si>
     <t>chefscollab</t>
@@ -3022,7 +3017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3050,13 +3045,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3067,13 +3062,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3084,13 +3079,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3101,11 +3096,11 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3116,13 +3111,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3133,11 +3128,11 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3148,13 +3143,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3165,13 +3160,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3182,13 +3177,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3199,13 +3194,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3216,13 +3211,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3233,13 +3228,13 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3250,13 +3245,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3267,13 +3262,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3284,13 +3279,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3301,13 +3296,13 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3318,13 +3313,13 @@
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3335,13 +3330,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3352,13 +3347,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3369,13 +3364,13 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3386,13 +3381,13 @@
         <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3403,10 +3398,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>25</v>
@@ -3420,13 +3415,13 @@
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3437,13 +3432,13 @@
         <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3454,13 +3449,13 @@
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3471,10 +3466,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
@@ -3488,10 +3483,10 @@
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>30</v>
@@ -3505,13 +3500,13 @@
         <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3522,13 +3517,13 @@
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3539,13 +3534,13 @@
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3556,13 +3551,13 @@
         <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3573,13 +3568,13 @@
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3590,13 +3585,13 @@
         <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3607,13 +3602,13 @@
         <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3624,13 +3619,13 @@
         <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3641,13 +3636,13 @@
         <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3658,13 +3653,13 @@
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3675,13 +3670,13 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3692,10 +3687,10 @@
         <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>42</v>
@@ -3709,13 +3704,13 @@
         <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3726,10 +3721,10 @@
         <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>44</v>
@@ -3743,13 +3738,13 @@
         <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3760,10 +3755,10 @@
         <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>46</v>
@@ -3777,10 +3772,10 @@
         <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>47</v>
@@ -3794,13 +3789,13 @@
         <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3811,13 +3806,13 @@
         <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3828,10 +3823,10 @@
         <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>50</v>
@@ -3845,10 +3840,10 @@
         <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>51</v>
@@ -3862,10 +3857,10 @@
         <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>52</v>
@@ -3879,13 +3874,13 @@
         <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3896,10 +3891,10 @@
         <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>54</v>
@@ -3913,13 +3908,13 @@
         <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3930,10 +3925,10 @@
         <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
@@ -3947,13 +3942,13 @@
         <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3964,13 +3959,13 @@
         <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3981,10 +3976,10 @@
         <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>59</v>
@@ -3998,13 +3993,13 @@
         <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4015,13 +4010,13 @@
         <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4032,13 +4027,13 @@
         <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4049,13 +4044,13 @@
         <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4066,13 +4061,13 @@
         <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4083,10 +4078,10 @@
         <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>65</v>
@@ -4100,10 +4095,10 @@
         <v>66</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>66</v>
@@ -4117,13 +4112,13 @@
         <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4134,13 +4129,13 @@
         <v>68</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4151,13 +4146,13 @@
         <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4168,13 +4163,13 @@
         <v>70</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4185,13 +4180,13 @@
         <v>71</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4202,11 +4197,11 @@
         <v>72</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4217,13 +4212,13 @@
         <v>73</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4234,13 +4229,13 @@
         <v>74</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4251,13 +4246,13 @@
         <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4268,10 +4263,10 @@
         <v>76</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>76</v>
@@ -4285,13 +4280,13 @@
         <v>77</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4302,13 +4297,13 @@
         <v>78</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4319,13 +4314,13 @@
         <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4336,13 +4331,13 @@
         <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4354,10 +4349,10 @@
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4368,13 +4363,13 @@
         <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4385,13 +4380,13 @@
         <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4402,13 +4397,13 @@
         <v>84</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4419,13 +4414,13 @@
         <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4436,10 +4431,10 @@
         <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>86</v>
@@ -4453,13 +4448,13 @@
         <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4470,13 +4465,13 @@
         <v>88</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4487,10 +4482,10 @@
         <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>89</v>
@@ -4504,13 +4499,13 @@
         <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4521,10 +4516,10 @@
         <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>91</v>
@@ -4538,13 +4533,13 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4555,13 +4550,13 @@
         <v>93</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4572,10 +4567,10 @@
         <v>94</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>94</v>
@@ -4589,13 +4584,13 @@
         <v>95</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4606,13 +4601,13 @@
         <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4623,13 +4618,13 @@
         <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4642,7 +4637,7 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4653,10 +4648,10 @@
         <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>99</v>
@@ -4670,13 +4665,13 @@
         <v>100</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4687,13 +4682,13 @@
         <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4704,13 +4699,13 @@
         <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4721,13 +4716,13 @@
         <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4738,10 +4733,10 @@
         <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>104</v>
@@ -4755,13 +4750,13 @@
         <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4772,10 +4767,10 @@
         <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>106</v>
@@ -4789,13 +4784,13 @@
         <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4806,13 +4801,13 @@
         <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4823,10 +4818,10 @@
         <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>109</v>
@@ -4840,13 +4835,13 @@
         <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4857,13 +4852,13 @@
         <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4874,13 +4869,13 @@
         <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4891,13 +4886,13 @@
         <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4908,10 +4903,10 @@
         <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>114</v>
@@ -4925,10 +4920,10 @@
         <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>115</v>
@@ -4942,13 +4937,13 @@
         <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4959,10 +4954,10 @@
         <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>117</v>
@@ -4976,10 +4971,10 @@
         <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>118</v>
@@ -4993,13 +4988,13 @@
         <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5010,10 +5005,10 @@
         <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>120</v>
@@ -5027,13 +5022,13 @@
         <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5044,10 +5039,10 @@
         <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>122</v>
@@ -5061,13 +5056,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5078,13 +5073,13 @@
         <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5095,10 +5090,10 @@
         <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>125</v>
@@ -5112,13 +5107,13 @@
         <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5129,13 +5124,13 @@
         <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5146,13 +5141,13 @@
         <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5163,13 +5158,13 @@
         <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5180,13 +5175,13 @@
         <v>130</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5197,13 +5192,13 @@
         <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5214,13 +5209,13 @@
         <v>132</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5231,13 +5226,13 @@
         <v>133</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5248,13 +5243,13 @@
         <v>134</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5265,13 +5260,13 @@
         <v>135</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5282,13 +5277,13 @@
         <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5299,10 +5294,10 @@
         <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>137</v>
@@ -5316,13 +5311,13 @@
         <v>138</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5333,10 +5328,10 @@
         <v>139</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>139</v>
@@ -5350,10 +5345,10 @@
         <v>140</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>140</v>
@@ -5367,10 +5362,10 @@
         <v>141</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>141</v>
@@ -5384,10 +5379,10 @@
         <v>142</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>142</v>
@@ -5401,13 +5396,13 @@
         <v>143</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5418,13 +5413,13 @@
         <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5435,13 +5430,13 @@
         <v>145</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5452,13 +5447,13 @@
         <v>146</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5469,10 +5464,10 @@
         <v>147</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>147</v>
@@ -5486,13 +5481,13 @@
         <v>148</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5503,13 +5498,13 @@
         <v>149</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5520,13 +5515,13 @@
         <v>150</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5537,13 +5532,13 @@
         <v>151</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5554,10 +5549,10 @@
         <v>152</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>152</v>
@@ -5571,13 +5566,13 @@
         <v>153</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5588,10 +5583,10 @@
         <v>154</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>154</v>
@@ -5605,13 +5600,13 @@
         <v>155</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5622,13 +5617,13 @@
         <v>156</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5639,13 +5634,13 @@
         <v>157</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5656,13 +5651,13 @@
         <v>158</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5673,10 +5668,10 @@
         <v>159</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>159</v>
@@ -5690,13 +5685,13 @@
         <v>160</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5707,13 +5702,13 @@
         <v>161</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5724,13 +5719,13 @@
         <v>162</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5741,13 +5736,13 @@
         <v>163</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5758,10 +5753,10 @@
         <v>164</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>164</v>
@@ -5775,13 +5770,13 @@
         <v>165</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5792,10 +5787,10 @@
         <v>166</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>166</v>
@@ -5809,13 +5804,13 @@
         <v>167</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5826,13 +5821,13 @@
         <v>168</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5843,13 +5838,13 @@
         <v>169</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5860,13 +5855,13 @@
         <v>170</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5877,13 +5872,13 @@
         <v>171</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5894,13 +5889,13 @@
         <v>172</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5911,10 +5906,10 @@
         <v>173</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>173</v>
@@ -5928,10 +5923,10 @@
         <v>174</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>174</v>
@@ -5945,13 +5940,13 @@
         <v>175</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5962,13 +5957,13 @@
         <v>176</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5979,13 +5974,13 @@
         <v>177</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5996,13 +5991,13 @@
         <v>178</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6013,13 +6008,13 @@
         <v>179</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6030,13 +6025,13 @@
         <v>180</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6047,13 +6042,13 @@
         <v>181</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6064,13 +6059,13 @@
         <v>182</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6081,10 +6076,10 @@
         <v>183</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>183</v>
@@ -6098,13 +6093,13 @@
         <v>184</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6115,10 +6110,10 @@
         <v>185</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>185</v>
@@ -6132,10 +6127,10 @@
         <v>186</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>186</v>
@@ -6149,13 +6144,13 @@
         <v>187</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6166,13 +6161,13 @@
         <v>188</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6183,13 +6178,13 @@
         <v>189</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6200,10 +6195,10 @@
         <v>190</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>190</v>
@@ -6217,13 +6212,13 @@
         <v>191</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6234,13 +6229,13 @@
         <v>192</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6251,13 +6246,13 @@
         <v>193</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6268,13 +6263,13 @@
         <v>194</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6285,13 +6280,13 @@
         <v>195</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6302,13 +6297,13 @@
         <v>196</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6319,13 +6314,13 @@
         <v>197</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6336,13 +6331,13 @@
         <v>198</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6353,10 +6348,10 @@
         <v>199</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>199</v>
@@ -6370,13 +6365,13 @@
         <v>200</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6387,13 +6382,13 @@
         <v>201</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6404,13 +6399,13 @@
         <v>202</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6421,13 +6416,13 @@
         <v>203</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6438,10 +6433,10 @@
         <v>204</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>204</v>
@@ -6455,13 +6450,13 @@
         <v>205</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6472,13 +6467,13 @@
         <v>206</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6489,13 +6484,13 @@
         <v>207</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6506,13 +6501,13 @@
         <v>208</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6523,13 +6518,13 @@
         <v>209</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6540,13 +6535,13 @@
         <v>210</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6557,10 +6552,10 @@
         <v>211</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>211</v>
@@ -6574,13 +6569,13 @@
         <v>212</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6591,13 +6586,13 @@
         <v>213</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>863</v>
+        <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6608,10 +6603,10 @@
         <v>214</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>214</v>
@@ -6625,13 +6620,13 @@
         <v>215</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>215</v>
+        <v>861</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6642,13 +6637,13 @@
         <v>216</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6659,13 +6654,13 @@
         <v>217</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6676,10 +6671,10 @@
         <v>218</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>218</v>
@@ -6693,13 +6688,13 @@
         <v>219</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>219</v>
+        <v>864</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6710,13 +6705,13 @@
         <v>220</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6727,13 +6722,13 @@
         <v>221</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>867</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6744,13 +6739,13 @@
         <v>222</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>222</v>
+        <v>866</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6761,13 +6756,13 @@
         <v>223</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6778,13 +6773,13 @@
         <v>224</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6795,13 +6790,13 @@
         <v>225</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>870</v>
+        <v>225</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6812,13 +6807,13 @@
         <v>226</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>226</v>
+        <v>869</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6829,13 +6824,13 @@
         <v>227</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6846,13 +6841,13 @@
         <v>228</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>872</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6863,13 +6858,13 @@
         <v>229</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>229</v>
+        <v>871</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6880,13 +6875,13 @@
         <v>230</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6897,13 +6892,13 @@
         <v>231</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>874</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6914,10 +6909,10 @@
         <v>232</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>232</v>
@@ -6931,10 +6926,10 @@
         <v>233</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>233</v>
@@ -6948,13 +6943,13 @@
         <v>234</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>234</v>
+        <v>873</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6965,13 +6960,13 @@
         <v>235</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6982,13 +6977,13 @@
         <v>236</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>876</v>
+        <v>236</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6999,13 +6994,13 @@
         <v>237</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>237</v>
+        <v>875</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7016,30 +7011,13 @@
         <v>238</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="1">
-        <v>236</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -7276,7 +7254,6 @@
     <hyperlink ref="D234" r:id="rId230"/>
     <hyperlink ref="D235" r:id="rId231"/>
     <hyperlink ref="D236" r:id="rId232"/>
-    <hyperlink ref="D237" r:id="rId233"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
